--- a/a1_RyR_Generator/v9.0/3_Results/Target.xlsx
+++ b/a1_RyR_Generator/v9.0/3_Results/Target.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciano.galan\Desktop\Code\Python_Eiit_RyR\RyR_Generator\old_versions\3_Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luciano.galan\Desktop\Code\Python_Eiit_RyR\a1_RyR_Generator\v9.0\3_Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF9B087-C41A-438F-8651-120FE5E9FDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F907B7AE-4A6D-457E-B69B-F43854FEBB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,104 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>Guia_Luz_Blanco_FB1_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB1_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB2_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB2_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB3_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB3_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB4_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB4_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB5_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB5_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB6_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB6_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB7_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB7_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB8_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB8_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB9_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB9_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB10_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB10_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB11_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB11_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB12_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB12_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB13_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB13_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB14_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB14_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB15_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB15_Y</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB16_X</t>
+  </si>
+  <si>
+    <t>Guia_Luz_Blanco_FB16_Y</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -358,17 +455,3248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A4:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.3327</v>
+      </c>
+      <c r="G4">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="H4">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.3327</v>
+      </c>
+      <c r="K4">
+        <v>0.3327</v>
+      </c>
+      <c r="L4">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="N4">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="O4">
+        <v>0.3327</v>
+      </c>
+      <c r="P4">
+        <v>0.3327</v>
+      </c>
+      <c r="Q4">
+        <v>0.3327</v>
+      </c>
+      <c r="R4">
+        <v>0.3327</v>
+      </c>
+      <c r="S4">
+        <v>0.3327</v>
+      </c>
+      <c r="T4">
+        <v>0.3327</v>
+      </c>
+      <c r="U4">
+        <v>0.3327</v>
+      </c>
+      <c r="V4">
+        <v>0.3327</v>
+      </c>
+      <c r="W4">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="X4">
+        <v>0.3327</v>
+      </c>
+      <c r="Y4">
+        <v>0.3327</v>
+      </c>
+      <c r="Z4">
+        <v>0.3327</v>
+      </c>
+      <c r="AA4">
+        <v>0.3327</v>
+      </c>
+      <c r="AB4">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="AC4">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="AD4">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="AE4">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="AF4">
+        <v>0.1</v>
+      </c>
+      <c r="AG4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="G5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="H5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="K5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="L5">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="M5">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="N5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="O5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="P5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="Q5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="R5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="S5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="T5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="U5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="V5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="W5">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="X5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="Y5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="Z5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="AA5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="AB5">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="AC5">
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="AD5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="AE5">
+        <v>0.35570000000000002</v>
+      </c>
+      <c r="AF5">
+        <v>0.1</v>
+      </c>
+      <c r="AG5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="D6">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="E6">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="F6">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="H6">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="J6">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="K6">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="L6">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="M6">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="N6">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="O6">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="P6">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="Q6">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="R6">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="S6">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="T6">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="U6">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="V6">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="W6">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="X6">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="Y6">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="Z6">
+        <v>0.33239999999999997</v>
+      </c>
+      <c r="AA6">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="AB6">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="AC6">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="AD6">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="AE6">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="AF6">
+        <v>0.1</v>
+      </c>
+      <c r="AG6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="G7">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="H7">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="I7">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="K7">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="O7">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="P7">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="Q7">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="R7">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="S7">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="T7">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="U7">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="V7">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="W7">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="X7">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="Y7">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="Z7">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="AA7">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="AB7">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="AC7">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="AD7">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="AE7">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="AF7">
+        <v>0.1</v>
+      </c>
+      <c r="AG7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="C8">
+        <v>0.3422</v>
+      </c>
+      <c r="D8">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="E8">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="F8">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="G8">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="I8">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="J8">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="K8">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="L8">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="M8">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="N8">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="O8">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="P8">
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="Q8">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="R8">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="S8">
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="T8">
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="U8">
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="V8">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="W8">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="X8">
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="Y8">
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="Z8">
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="AA8">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="AB8">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="AC8">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="AD8">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="AE8">
+        <v>0.34189999999999998</v>
+      </c>
+      <c r="AF8">
+        <v>0.1</v>
+      </c>
+      <c r="AG8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.3629</v>
+      </c>
+      <c r="E9">
+        <v>0.3629</v>
+      </c>
+      <c r="F9">
+        <v>0.3629</v>
+      </c>
+      <c r="G9">
+        <v>0.3629</v>
+      </c>
+      <c r="H9">
+        <v>0.3629</v>
+      </c>
+      <c r="I9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.3629</v>
+      </c>
+      <c r="K9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="L9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="P9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="R9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="S9">
+        <v>0.3629</v>
+      </c>
+      <c r="T9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="U9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="V9">
+        <v>0.3629</v>
+      </c>
+      <c r="W9">
+        <v>0.3629</v>
+      </c>
+      <c r="X9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="Y9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="AA9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="AB9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="AC9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="AD9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="AE9">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0.33179999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="J10">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="M10">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="N10">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="P10">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="R10">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="S10">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="T10">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="U10">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="V10">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="W10">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="X10">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="Y10">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="Z10">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="AA10">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="AB10">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="AC10">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="AD10">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="AE10">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="AF10">
+        <v>0.1</v>
+      </c>
+      <c r="AG10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="C11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="D11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="E11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="F11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="G11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="H11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="I11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="J11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="K11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="L11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="M11">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="N11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="O11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="P11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="Q11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="R11">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="S11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="T11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="U11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="V11">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="W11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="X11">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="Y11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="Z11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="AA11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="AB11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="AC11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="AD11">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="AE11">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="AF11">
+        <v>0.1</v>
+      </c>
+      <c r="AG11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0.32619999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.32579999999999998</v>
+      </c>
+      <c r="D12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="E12">
+        <v>0.32579999999999998</v>
+      </c>
+      <c r="F12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="G12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="H12">
+        <v>0.32579999999999998</v>
+      </c>
+      <c r="I12">
+        <v>0.32579999999999998</v>
+      </c>
+      <c r="J12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="K12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="L12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="M12">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="O12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="P12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="Q12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="R12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="S12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="T12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="U12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="V12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="W12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="X12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="Y12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="Z12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="AA12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="AB12">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="AC12">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="AD12">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="AE12">
+        <v>0.32590000000000002</v>
+      </c>
+      <c r="AF12">
+        <v>0.1</v>
+      </c>
+      <c r="AG12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0.35260000000000002</v>
+      </c>
+      <c r="C13">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="E13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="F13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="H13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="K13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="L13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="M13">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="N13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="P13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="Q13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="R13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="S13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="T13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="U13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="V13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="W13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="X13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="Y13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="Z13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="AA13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="AB13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="AC13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="AD13">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="AE13">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="AF13">
+        <v>0.1</v>
+      </c>
+      <c r="AG13">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0.33460000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.33450000000000002</v>
+      </c>
+      <c r="D14">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="E14">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="F14">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="G14">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="H14">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="I14">
+        <v>0.33450000000000002</v>
+      </c>
+      <c r="J14">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="K14">
+        <v>0.33450000000000002</v>
+      </c>
+      <c r="L14">
+        <v>0.33450000000000002</v>
+      </c>
+      <c r="M14">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="N14">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="O14">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="P14">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="Q14">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="R14">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="S14">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="T14">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="U14">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="V14">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="W14">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="X14">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="Y14">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="Z14">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="AA14">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="AB14">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="AC14">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="AD14">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="AE14">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="AF14">
+        <v>0.1</v>
+      </c>
+      <c r="AG14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="E15">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="F15">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="G15">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="H15">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="I15">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="J15">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="K15">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="L15">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="M15">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="N15">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="O15">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="P15">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="Q15">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="R15">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="S15">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="T15">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="U15">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="V15">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="W15">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="X15">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="Y15">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="Z15">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="AA15">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="AB15">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="AC15">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="AD15">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="AE15">
+        <v>0.35709999999999997</v>
+      </c>
+      <c r="AF15">
+        <v>0.1</v>
+      </c>
+      <c r="AG15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="E16">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="F16">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="G16">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="H16">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="I16">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="J16">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="K16">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="L16">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="M16">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="N16">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="O16">
+        <v>0.33150000000000002</v>
+      </c>
+      <c r="P16">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="Q16">
+        <v>0.33129999999999998</v>
+      </c>
+      <c r="R16">
+        <v>0.33129999999999998</v>
+      </c>
+      <c r="S16">
+        <v>0.33129999999999998</v>
+      </c>
+      <c r="T16">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="U16">
+        <v>0.33129999999999998</v>
+      </c>
+      <c r="V16">
+        <v>0.33129999999999998</v>
+      </c>
+      <c r="W16">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="X16">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="Y16">
+        <v>0.33129999999999998</v>
+      </c>
+      <c r="Z16">
+        <v>0.33129999999999998</v>
+      </c>
+      <c r="AA16">
+        <v>0.33129999999999998</v>
+      </c>
+      <c r="AB16">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="AC16">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="AD16">
+        <v>0.33129999999999998</v>
+      </c>
+      <c r="AE16">
+        <v>0.33129999999999998</v>
+      </c>
+      <c r="AF16">
+        <v>0.1</v>
+      </c>
+      <c r="AG16">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="C17">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="D17">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="E17">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="F17">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="G17">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="H17">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="I17">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="J17">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="K17">
+        <v>0.35549999999999998</v>
+      </c>
+      <c r="L17">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="M17">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="P17">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="Q17">
+        <v>0.3553</v>
+      </c>
+      <c r="R17">
+        <v>0.3553</v>
+      </c>
+      <c r="S17">
+        <v>0.3553</v>
+      </c>
+      <c r="T17">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="U17">
+        <v>0.3553</v>
+      </c>
+      <c r="V17">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="W17">
+        <v>0.3553</v>
+      </c>
+      <c r="X17">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="Y17">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="Z17">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="AA17">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="AB17">
+        <v>0.3553</v>
+      </c>
+      <c r="AC17">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="AD17">
+        <v>0.35539999999999999</v>
+      </c>
+      <c r="AE17">
+        <v>0.3553</v>
+      </c>
+      <c r="AF17">
+        <v>0.1</v>
+      </c>
+      <c r="AG17">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="C18">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="G18">
+        <v>0.32729999999999998</v>
+      </c>
+      <c r="H18">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="I18">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="J18">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="K18">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="L18">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="M18">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="N18">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="O18">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="P18">
+        <v>0.32729999999999998</v>
+      </c>
+      <c r="Q18">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="R18">
+        <v>0.32729999999999998</v>
+      </c>
+      <c r="S18">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="T18">
+        <v>0.32729999999999998</v>
+      </c>
+      <c r="U18">
+        <v>0.32729999999999998</v>
+      </c>
+      <c r="V18">
+        <v>0.32729999999999998</v>
+      </c>
+      <c r="W18">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="X18">
+        <v>0.32729999999999998</v>
+      </c>
+      <c r="Y18">
+        <v>0.32729999999999998</v>
+      </c>
+      <c r="Z18">
+        <v>0.32729999999999998</v>
+      </c>
+      <c r="AA18">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="AB18">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="AC18">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="AD18">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="AE18">
+        <v>0.32740000000000002</v>
+      </c>
+      <c r="AF18">
+        <v>0.1</v>
+      </c>
+      <c r="AG18">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="C19">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="D19">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="E19">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="F19">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="G19">
+        <v>0.3523</v>
+      </c>
+      <c r="H19">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="J19">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="L19">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="M19">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="N19">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="P19">
+        <v>0.3523</v>
+      </c>
+      <c r="Q19">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="R19">
+        <v>0.3523</v>
+      </c>
+      <c r="S19">
+        <v>0.3523</v>
+      </c>
+      <c r="T19">
+        <v>0.3523</v>
+      </c>
+      <c r="U19">
+        <v>0.3523</v>
+      </c>
+      <c r="V19">
+        <v>0.3523</v>
+      </c>
+      <c r="W19">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="X19">
+        <v>0.3523</v>
+      </c>
+      <c r="Y19">
+        <v>0.3523</v>
+      </c>
+      <c r="Z19">
+        <v>0.3523</v>
+      </c>
+      <c r="AA19">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="AB19">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="AC19">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="AD19">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="AE19">
+        <v>0.3523</v>
+      </c>
+      <c r="AF19">
+        <v>0.1</v>
+      </c>
+      <c r="AG19">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>0.32779999999999998</v>
+      </c>
+      <c r="C20">
+        <v>0.32779999999999998</v>
+      </c>
+      <c r="D20">
+        <v>0.32779999999999998</v>
+      </c>
+      <c r="E20">
+        <v>0.32779999999999998</v>
+      </c>
+      <c r="F20">
+        <v>0.32790000000000002</v>
+      </c>
+      <c r="G20">
+        <v>0.32779999999999998</v>
+      </c>
+      <c r="H20">
+        <v>0.32779999999999998</v>
+      </c>
+      <c r="I20">
+        <v>0.32779999999999998</v>
+      </c>
+      <c r="J20">
+        <v>0.32779999999999998</v>
+      </c>
+      <c r="K20">
+        <v>0.32790000000000002</v>
+      </c>
+      <c r="L20">
+        <v>0.32790000000000002</v>
+      </c>
+      <c r="M20">
+        <v>0.32779999999999998</v>
+      </c>
+      <c r="N20">
+        <v>0.32790000000000002</v>
+      </c>
+      <c r="O20">
+        <v>0.32779999999999998</v>
+      </c>
+      <c r="P20">
+        <v>0.32779999999999998</v>
+      </c>
+      <c r="Q20">
+        <v>0.3276</v>
+      </c>
+      <c r="R20">
+        <v>0.3276</v>
+      </c>
+      <c r="S20">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="T20">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="U20">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="V20">
+        <v>0.3276</v>
+      </c>
+      <c r="W20">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="X20">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="Y20">
+        <v>0.3276</v>
+      </c>
+      <c r="Z20">
+        <v>0.3276</v>
+      </c>
+      <c r="AA20">
+        <v>0.3276</v>
+      </c>
+      <c r="AB20">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="AC20">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="AD20">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="AE20">
+        <v>0.3276</v>
+      </c>
+      <c r="AF20">
+        <v>0.1</v>
+      </c>
+      <c r="AG20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="C21">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="D21">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="E21">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="F21">
+        <v>0.35349999999999998</v>
+      </c>
+      <c r="G21">
+        <v>0.35349999999999998</v>
+      </c>
+      <c r="H21">
+        <v>0.35349999999999998</v>
+      </c>
+      <c r="I21">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="J21">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="K21">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="L21">
+        <v>0.35349999999999998</v>
+      </c>
+      <c r="M21">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="N21">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="P21">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="Q21">
+        <v>0.3533</v>
+      </c>
+      <c r="R21">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="S21">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="T21">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="U21">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="V21">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="W21">
+        <v>0.3533</v>
+      </c>
+      <c r="X21">
+        <v>0.3533</v>
+      </c>
+      <c r="Y21">
+        <v>0.3533</v>
+      </c>
+      <c r="Z21">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="AA21">
+        <v>0.3533</v>
+      </c>
+      <c r="AB21">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="AC21">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="AD21">
+        <v>0.3533</v>
+      </c>
+      <c r="AE21">
+        <v>0.3533</v>
+      </c>
+      <c r="AF21">
+        <v>0.1</v>
+      </c>
+      <c r="AG21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>0.33460000000000001</v>
+      </c>
+      <c r="C22">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="D22">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="E22">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="F22">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="G22">
+        <v>0.3342</v>
+      </c>
+      <c r="H22">
+        <v>0.3342</v>
+      </c>
+      <c r="I22">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="J22">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="K22">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="L22">
+        <v>0.33450000000000002</v>
+      </c>
+      <c r="M22">
+        <v>0.33450000000000002</v>
+      </c>
+      <c r="N22">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="O22">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="P22">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="Q22">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="R22">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="S22">
+        <v>0.3342</v>
+      </c>
+      <c r="T22">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="U22">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="V22">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="W22">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="X22">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="Y22">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="Z22">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="AA22">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="AB22">
+        <v>0.33439999999999998</v>
+      </c>
+      <c r="AC22">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="AD22">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="AE22">
+        <v>0.33429999999999999</v>
+      </c>
+      <c r="AF22">
+        <v>0.1</v>
+      </c>
+      <c r="AG22">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>0.3574</v>
+      </c>
+      <c r="C23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="F23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="G23">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="H23">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="I23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="J23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="K23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="L23">
+        <v>0.3574</v>
+      </c>
+      <c r="M23">
+        <v>0.3574</v>
+      </c>
+      <c r="N23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="P23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="Q23">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="R23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="S23">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="T23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="U23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="V23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="W23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="X23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="Y23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="Z23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="AA23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="AB23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="AC23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="AD23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="AE23">
+        <v>0.35730000000000001</v>
+      </c>
+      <c r="AF23">
+        <v>0.1</v>
+      </c>
+      <c r="AG23">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="C24">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="D24">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="E24">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="F24">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="G24">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="H24">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="I24">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="J24">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="K24">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="L24">
+        <v>0.32869999999999999</v>
+      </c>
+      <c r="M24">
+        <v>0.3286</v>
+      </c>
+      <c r="N24">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="O24">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="P24">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="Q24">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="R24">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="S24">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="T24">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="U24">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="V24">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="W24">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="X24">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="Y24">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="Z24">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="AA24">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="AB24">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="AC24">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="AD24">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="AE24">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="AF24">
+        <v>0.1</v>
+      </c>
+      <c r="AG24">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>0.3513</v>
+      </c>
+      <c r="C25">
+        <v>0.3513</v>
+      </c>
+      <c r="D25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="E25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="G25">
+        <v>0.3513</v>
+      </c>
+      <c r="H25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="J25">
+        <v>0.3513</v>
+      </c>
+      <c r="K25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.35110000000000002</v>
+      </c>
+      <c r="M25">
+        <v>0.35110000000000002</v>
+      </c>
+      <c r="N25">
+        <v>0.3513</v>
+      </c>
+      <c r="O25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="P25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="Q25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="R25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="S25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="T25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="U25">
+        <v>0.3513</v>
+      </c>
+      <c r="V25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="W25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="X25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="Y25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="Z25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="AA25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="AB25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="AC25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="AD25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="AE25">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="AF25">
+        <v>0.1</v>
+      </c>
+      <c r="AG25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>0.32790000000000002</v>
+      </c>
+      <c r="C26">
+        <v>0.32790000000000002</v>
+      </c>
+      <c r="D26">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="E26">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F26">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.3281</v>
+      </c>
+      <c r="H26">
+        <v>0.3281</v>
+      </c>
+      <c r="I26">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="J26">
+        <v>0.3281</v>
+      </c>
+      <c r="K26">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="L26">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="M26">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.3281</v>
+      </c>
+      <c r="P26">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="Q26">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="R26">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="S26">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="T26">
+        <v>0.3281</v>
+      </c>
+      <c r="U26">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="V26">
+        <v>0.3281</v>
+      </c>
+      <c r="W26">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="X26">
+        <v>0.3281</v>
+      </c>
+      <c r="Y26">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="Z26">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="AA26">
+        <v>0.3281</v>
+      </c>
+      <c r="AB26">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="AC26">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="AD26">
+        <v>0.3281</v>
+      </c>
+      <c r="AE26">
+        <v>0.3281</v>
+      </c>
+      <c r="AF26">
+        <v>0.1</v>
+      </c>
+      <c r="AG26">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="C27">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D27">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="E27">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="F27">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="G27">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="H27">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="I27">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="J27">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="K27">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="L27">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="M27">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="N27">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="O27">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="P27">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="Q27">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="R27">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="S27">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="T27">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="U27">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="V27">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="W27">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="X27">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="Y27">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="Z27">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="AA27">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="AB27">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="AC27">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="AD27">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="AE27">
+        <v>0.35310000000000002</v>
+      </c>
+      <c r="AF27">
+        <v>0.1</v>
+      </c>
+      <c r="AG27">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="C28">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="D28">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="E28">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="F28">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="G28">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="H28">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="J28">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="K28">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="L28">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="M28">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="N28">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.33129999999999998</v>
+      </c>
+      <c r="P28">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="Q28">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="R28">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="S28">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="T28">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="U28">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="V28">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="W28">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="X28">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="Y28">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="Z28">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="AA28">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="AB28">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="AC28">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="AD28">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="AE28">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="AF28">
+        <v>0.1</v>
+      </c>
+      <c r="AG28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="C29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="D29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="E29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="F29">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="G29">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="H29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="J29">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="K29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="L29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="M29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="N29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="O29">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="P29">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="Q29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="R29">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="S29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="T29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="U29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="V29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="W29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="X29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="Y29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="Z29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="AA29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="AB29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="AC29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="AD29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="AE29">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="AF29">
+        <v>0.1</v>
+      </c>
+      <c r="AG29">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <v>0.3327</v>
+      </c>
+      <c r="C30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="D30">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="E30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="G30">
+        <v>0.3327</v>
+      </c>
+      <c r="H30">
+        <v>0.3327</v>
+      </c>
+      <c r="I30">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="J30">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="K30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="L30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="M30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="N30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="P30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="Q30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="R30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="S30">
+        <v>0.3327</v>
+      </c>
+      <c r="T30">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="U30">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="V30">
+        <v>0.33250000000000002</v>
+      </c>
+      <c r="W30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="X30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="Y30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="Z30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="AA30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="AB30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="AC30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="AD30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="AE30">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="AF30">
+        <v>0.1</v>
+      </c>
+      <c r="AG30">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="C31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="D31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="E31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="F31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="G31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="H31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="I31">
+        <v>0.35659999999999997</v>
+      </c>
+      <c r="J31">
+        <v>0.35659999999999997</v>
+      </c>
+      <c r="K31">
+        <v>0.35659999999999997</v>
+      </c>
+      <c r="L31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="M31">
+        <v>0.35659999999999997</v>
+      </c>
+      <c r="N31">
+        <v>0.35659999999999997</v>
+      </c>
+      <c r="O31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="P31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="Q31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="R31">
+        <v>0.35659999999999997</v>
+      </c>
+      <c r="S31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="T31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="U31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="V31">
+        <v>0.35659999999999997</v>
+      </c>
+      <c r="W31">
+        <v>0.35659999999999997</v>
+      </c>
+      <c r="X31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="Y31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="Z31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="AA31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="AB31">
+        <v>0.35659999999999997</v>
+      </c>
+      <c r="AC31">
+        <v>0.35659999999999997</v>
+      </c>
+      <c r="AD31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="AE31">
+        <v>0.35670000000000002</v>
+      </c>
+      <c r="AF31">
+        <v>0.1</v>
+      </c>
+      <c r="AG31">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>0.33229999999999998</v>
+      </c>
+      <c r="C32">
+        <v>0.3322</v>
+      </c>
+      <c r="D32">
+        <v>0.3322</v>
+      </c>
+      <c r="E32">
+        <v>0.3322</v>
+      </c>
+      <c r="F32">
+        <v>0.3322</v>
+      </c>
+      <c r="G32">
+        <v>0.3322</v>
+      </c>
+      <c r="H32">
+        <v>0.3322</v>
+      </c>
+      <c r="I32">
+        <v>0.33210000000000001</v>
+      </c>
+      <c r="J32">
+        <v>0.3322</v>
+      </c>
+      <c r="K32">
+        <v>0.3322</v>
+      </c>
+      <c r="L32">
+        <v>0.3322</v>
+      </c>
+      <c r="M32">
+        <v>0.33210000000000001</v>
+      </c>
+      <c r="N32">
+        <v>0.3322</v>
+      </c>
+      <c r="O32">
+        <v>0.3322</v>
+      </c>
+      <c r="P32">
+        <v>0.3322</v>
+      </c>
+      <c r="Q32">
+        <v>0.33210000000000001</v>
+      </c>
+      <c r="R32">
+        <v>0.33210000000000001</v>
+      </c>
+      <c r="S32">
+        <v>0.3322</v>
+      </c>
+      <c r="T32">
+        <v>0.3322</v>
+      </c>
+      <c r="U32">
+        <v>0.3322</v>
+      </c>
+      <c r="V32">
+        <v>0.3322</v>
+      </c>
+      <c r="W32">
+        <v>0.3322</v>
+      </c>
+      <c r="X32">
+        <v>0.3322</v>
+      </c>
+      <c r="Y32">
+        <v>0.3322</v>
+      </c>
+      <c r="Z32">
+        <v>0.3322</v>
+      </c>
+      <c r="AA32">
+        <v>0.33210000000000001</v>
+      </c>
+      <c r="AB32">
+        <v>0.33210000000000001</v>
+      </c>
+      <c r="AC32">
+        <v>0.33210000000000001</v>
+      </c>
+      <c r="AD32">
+        <v>0.3322</v>
+      </c>
+      <c r="AE32">
+        <v>0.33210000000000001</v>
+      </c>
+      <c r="AF32">
+        <v>0.1</v>
+      </c>
+      <c r="AG32">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="C33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="D33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="E33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="F33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="G33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="H33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="I33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="J33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="K33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="L33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="M33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="N33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="P33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="Q33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="R33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="S33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="T33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="U33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="V33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="W33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="X33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="Y33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="Z33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="AA33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="AB33">
+        <v>0.35630000000000001</v>
+      </c>
+      <c r="AC33">
+        <v>0.35630000000000001</v>
+      </c>
+      <c r="AD33">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="AE33">
+        <v>0.35630000000000001</v>
+      </c>
+      <c r="AF33">
+        <v>0.1</v>
+      </c>
+      <c r="AG33">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="D34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="F34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="G34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="H34">
+        <v>0.3276</v>
+      </c>
+      <c r="I34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="J34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="K34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="L34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="M34">
+        <v>0.3276</v>
+      </c>
+      <c r="N34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="P34">
+        <v>0.3276</v>
+      </c>
+      <c r="Q34">
+        <v>0.3276</v>
+      </c>
+      <c r="R34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="S34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="T34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="U34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="V34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="W34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="X34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="Y34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="Z34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="AA34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="AB34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="AC34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="AD34">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="AE34">
+        <v>0.3276</v>
+      </c>
+      <c r="AF34">
+        <v>0.1</v>
+      </c>
+      <c r="AG34">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>0.3533</v>
+      </c>
+      <c r="C35">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="D35">
+        <v>0.3533</v>
+      </c>
+      <c r="E35">
+        <v>0.3533</v>
+      </c>
+      <c r="F35">
+        <v>0.3533</v>
+      </c>
+      <c r="G35">
+        <v>0.3533</v>
+      </c>
+      <c r="H35">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="I35">
+        <v>0.3533</v>
+      </c>
+      <c r="J35">
+        <v>0.3533</v>
+      </c>
+      <c r="K35">
+        <v>0.3533</v>
+      </c>
+      <c r="L35">
+        <v>0.3533</v>
+      </c>
+      <c r="M35">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="N35">
+        <v>0.3533</v>
+      </c>
+      <c r="O35">
+        <v>0.3533</v>
+      </c>
+      <c r="P35">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="Q35">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="R35">
+        <v>0.3533</v>
+      </c>
+      <c r="S35">
+        <v>0.3533</v>
+      </c>
+      <c r="T35">
+        <v>0.3533</v>
+      </c>
+      <c r="U35">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="V35">
+        <v>0.3533</v>
+      </c>
+      <c r="W35">
+        <v>0.3533</v>
+      </c>
+      <c r="X35">
+        <v>0.3533</v>
+      </c>
+      <c r="Y35">
+        <v>0.3533</v>
+      </c>
+      <c r="Z35">
+        <v>0.3533</v>
+      </c>
+      <c r="AA35">
+        <v>0.3533</v>
+      </c>
+      <c r="AB35">
+        <v>0.3533</v>
+      </c>
+      <c r="AC35">
+        <v>0.3533</v>
+      </c>
+      <c r="AD35">
+        <v>0.3533</v>
+      </c>
+      <c r="AE35">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="AF35">
+        <v>0.1</v>
+      </c>
+      <c r="AG35">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>